--- a/Movies.xlsx
+++ b/Movies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,48 +483,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baahubali - Crown of Blood S01E01 Return to Mahishmati 1080p.mkv</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Deadpool &amp; Wolverine</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>4K</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x264</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
+          <t>SDR</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>768Kbps &amp; AAC &amp; DD+5.1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>876.28 MB</t>
+          <t>22.53 GB</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baahubali - Crown of Blood S01E02 Katappas Exile 1080p.mkv</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Malaikottai Vaaliban</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -532,67 +540,67 @@
           <t>x264</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hin + Kan + Tam</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>192Kbps &amp; DD+5.1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>622.34 MB</t>
+          <t>1.7 GB</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Deadpool &amp; Wolverine</t>
+          <t>Little Miss Rawther</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4K</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SDR</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AAC &amp; 768Kbps &amp; DD+5.1</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>22.53 GB</t>
+          <t>710.83 MB</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Malaikottai Vaaliban</t>
+          <t>Bhamakalapam 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -607,36 +615,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hin + Kan + Tam</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>192Kbps &amp; DD+5.1</t>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.7 GB</t>
+          <t>645.23 MB</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Little Miss Rawther</t>
+          <t>Parole</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,14 +671,14 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>710.83 MB</t>
+          <t>711.33 MB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bhamakalapam 2</t>
+          <t>The Fall Guy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -685,70 +693,74 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>English + Hindi</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+          <t>192Kbps</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>645.23 MB</t>
+          <t>1.48 GB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Parole</t>
+          <t>Baahubali Crown of Blood</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tamil</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>AAC</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>Hin + Kan + Mal + Tam + Tel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>711.33 MB</t>
+          <t>590.18 MB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Fall Guy</t>
+          <t>Baahubali Crown of Blood</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -758,36 +770,40 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>English + Hindi</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>192Kbps</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>Hin + Kan + Mal + Tam + Tel</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.48 GB</t>
+          <t>603.9 MB</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Baahubali Crown of Blood</t>
+          <t>Avatara Purusha 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -797,40 +813,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hin + Kan + Mal + Tam + Tel</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
+          <t>Kannada</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>590.18 MB</t>
+          <t>1.4 GB</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Baahubali Crown of Blood</t>
+          <t>Transformers One</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -840,40 +852,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hin + Kan + Mal + Tam + Tel</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>768Kbps &amp; AAC &amp; DD+5.1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>603.9 MB</t>
+          <t>2.24 GB</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Avatara Purusha 2</t>
+          <t>The Penguin</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -883,7 +891,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -893,36 +901,44 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kannada</t>
+          <t>Eng + Hin + Kan + Tam + Tel</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>AAC &amp; 192Kbps</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.4 GB</t>
+          <t>1.0 GB</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Transformers One</t>
+          <t>The Flash</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -932,36 +948,40 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>AAC &amp; 768Kbps &amp; DD+5.1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>Eng + Hin + Tam</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.24 GB</t>
+          <t>613.37 MB</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Penguin</t>
+          <t>The Flash</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -971,14 +991,10 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eng + Hin + Kan + Tam + Tel</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>AAC &amp; 192Kbps</t>
-        </is>
-      </c>
+          <t>Eng + Hin + Tam</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>01</t>
@@ -986,24 +1002,24 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.0 GB</t>
+          <t>612.95 MB</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Flash</t>
+          <t>Knives Out</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1018,78 +1034,70 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eng + Hin + Tam</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
+          <t>Eng + Tamil</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DD+ &amp; 224Kbps</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>613.37 MB</t>
+          <t>2.37 GB</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>The Flash</t>
+          <t>Kottukkaali</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eng + Hin + Tam</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
+          <t>Tamil</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>640Kbps &amp; AAC &amp; DD+5.1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>612.95 MB</t>
+          <t>2.38 GB</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Knives Out</t>
+          <t>The Flash</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1104,58 +1112,66 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eng + Tamil</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>DD+ &amp; 224Kbps</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+          <t>Eng + Hin + Tam</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.37 GB</t>
+          <t>641.95 MB</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kottukkaali</t>
+          <t>The Flash</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tamil</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>AAC &amp; DD+5.1 &amp; 640Kbps</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+          <t>Eng + Hin + Tam</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.38 GB</t>
+          <t>613.14 MB</t>
         </is>
       </c>
     </row>
@@ -1193,39 +1209,39 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>641.95 MB</t>
+          <t>612.69 MB</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>The Flash</t>
+          <t>Baahubali Crown of Blood</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eng + Hin + Tam</t>
+          <t>Hin + Kan + Mal + Tam + Tel</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1236,24 +1252,24 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>613.14 MB</t>
+          <t>601.64 MB</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>The Flash</t>
+          <t>Dune Part Two</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1263,78 +1279,66 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HDR10+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eng + Hin + Tam</t>
+          <t>Eng + Hin + Kan + Tam + Tel</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>612.69 MB</t>
+          <t>11.74 GB</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Baahubali Crown of Blood</t>
+          <t>Dunki</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hin + Kan + Mal + Tam + Tel</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>601.64 MB</t>
+          <t>1.8 GB</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dune Part Two</t>
+          <t>Eagle</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1344,32 +1348,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HDR10+</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eng + Hin + Kan + Tam + Tel</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Tamil</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11.74 GB</t>
+          <t>1.48 GB</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dunki</t>
+          <t>Rebel Moon</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1379,36 +1387,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hindi</t>
+          <t>Eng + Hin + Tam + Tel</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+          <t>640Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.8 GB</t>
+          <t>4.03 GB</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eagle</t>
+          <t>Rebel Moon Part 2 The ScarGiver</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1428,41 +1436,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tamil</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
-        </is>
-      </c>
+          <t>Eng + Hin + Tam + Tel</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.48 GB</t>
+          <t>3.72 GB</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rebel Moon</t>
+          <t>The Beekeeper</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1470,23 +1474,19 @@
           <t>Eng + Hin + Tam + Tel</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>DD+5.1 &amp; 640Kbps</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.03 GB</t>
+          <t>1.22 GB</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Rebel Moon Part 2 The ScarGiver</t>
+          <t>Upadhyaksha</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1506,22 +1506,26 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Eng + Hin + Tam + Tel</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>Kannada</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.72 GB</t>
+          <t>1.43 GB</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Beekeeper</t>
+          <t>Hanu-Man</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1531,7 +1535,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1541,22 +1545,26 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Eng + Hin + Tam + Tel</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>Kannada + Malayalam</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>192Kbps &amp; DD+5.1</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.22 GB</t>
+          <t>2.87 GB</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Upadhyaksha</t>
+          <t>Bachelor Party</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1566,12 +1574,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1581,21 +1589,21 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+          <t>AAC &amp; DD+ &amp; 224Kbps</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.43 GB</t>
+          <t>2.62 GB</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hanu-Man</t>
+          <t>Bramayugam</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1610,46 +1618,46 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kannada + Malayalam</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>192Kbps &amp; DD+5.1</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.87 GB</t>
+          <t>1.44 GB</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bachelor Party</t>
+          <t>Sapta Sagaradaache Ello - Side B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1659,65 +1667,65 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AAC &amp; DD+ &amp; 224Kbps</t>
+          <t>aac &amp; AAC &amp; 192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.62 GB</t>
+          <t>1.64 GB</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bramayugam</t>
+          <t>Blade Runner 2049</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>Eng + Hin + Kan + Tam</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.44 GB</t>
+          <t>1.78 GB</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sapta Sagaradaache Ello - Side B</t>
+          <t>Monkey Man</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1727,41 +1735,41 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kannada</t>
+          <t>English</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AAC &amp; aac &amp; 192Kbps &amp; DD+5.1</t>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.64 GB</t>
+          <t>1.11 GB</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Blade Runner 2049</t>
+          <t>Virumaandi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1771,36 +1779,36 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Eng + Hin + Kan + Tam</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>192Kbps &amp; DD+5.1</t>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.78 GB</t>
+          <t>1.52 GB</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Monkey Man</t>
+          <t>A.Christmas.Gift.From.Bob.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1808,38 +1816,30 @@
           <t>x264</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1.11 GB</t>
+          <t>796.29 MB</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Virumaandi</t>
+          <t>Siva Manasula Shakthi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1849,31 +1849,27 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tamil</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
-        </is>
-      </c>
+          <t>Tamil + Tamil - 720p</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.52 GB</t>
+          <t>1.46 GB</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A.Christmas.Gift.From.Bob.</t>
+          <t>SOLO</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1886,25 +1882,29 @@
           <t>x264</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Tamil</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>796.29 MB</t>
+          <t>1.46 GB</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Siva Manasula Shakthi</t>
+          <t>Amaran</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1919,37 +1919,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - 720p</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1(192Kbps)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>AAC &amp; 192Kbps</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.46 GB</t>
+          <t>1.68 GB</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLO</t>
+          <t>Miss You</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>x265</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1957,19 +1961,23 @@
           <t>Tamil</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>AAC</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1.46 GB</t>
+          <t>909.73 MB</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Amaran</t>
+          <t>Bloody Beggar</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1979,56 +1987,56 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1(192Kbps)</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1.68 GB</t>
+          <t>909.14 MB</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Miss You</t>
+          <t>First Strike</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x265</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>Chi + Tam</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2040,19 +2048,19 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>909.73 MB</t>
+          <t>842.85 MB</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bloody Beggar</t>
+          <t>Who Am I</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2062,12 +2070,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>Eng + Tamil</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2079,24 +2087,24 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>909.14 MB</t>
+          <t>967.29 MB</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>First Strike</t>
+          <t>Wallace &amp; Gromit Vengeance Most Fowl</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2106,31 +2114,27 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Chi + Tam</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>AAC</t>
-        </is>
-      </c>
+          <t>Eng + Hin + Tam + Tel</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>842.85 MB</t>
+          <t>976.59 MB</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Who Am I</t>
+          <t>Sir</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2145,7 +2149,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Eng + Tamil</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2157,19 +2161,19 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>967.29 MB</t>
+          <t>718.31 MB</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Wallace &amp; Gromit Vengeance Most Fowl</t>
+          <t>That Christmas</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2187,19 +2191,23 @@
           <t>Eng + Hin + Tam + Tel</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>192Kbps &amp; DD+5.1</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>976.59 MB</t>
+          <t>955.58 MB</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sir</t>
+          <t>Deadpool &amp; Wolverine</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2209,7 +2217,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2219,36 +2227,36 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>Eng + Hin + Tam + Tel</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>718.31 MB</t>
+          <t>1.66 GB</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>That Christmas</t>
+          <t>Pele Birth Of A Legend</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2263,31 +2271,31 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>192Kbps &amp; DD+5.1</t>
+          <t>192Kbps</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>955.58 MB</t>
+          <t>1.39 GB</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Deadpool &amp; Wolverine</t>
+          <t>Gladiator</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2297,36 +2305,36 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Eng + Hin + Tam + Tel</t>
+          <t>720p BDRip EXTENDED - [Tamil (640kbps) + Eng + Tamil</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>192Kbps &amp; DD+5.1</t>
+          <t>640kbps</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1.66 GB</t>
+          <t>2.32 GB</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pele Birth Of A Legend</t>
+          <t>Viduthalai Part-1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2336,75 +2344,75 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Eng + Hin + Tam + Tel</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>192Kbps</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1.39 GB</t>
+          <t>1.55 GB</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gladiator</t>
+          <t>Kadhalum Kadanthu Pogum</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>720p BDRip EXTENDED - [Tamil (640kbps) + Eng + Tamil</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>640kbps</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2.32 GB</t>
+          <t>975.96 MB</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Viduthalai Part-1</t>
+          <t>Singham Again</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2414,36 +2422,36 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1 (192Kbps)</t>
+          <t>Hindi + Hindi - HQ HDRip - x264 - AAC - 800MB</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1.55 GB</t>
+          <t>837.42 MB</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Kadhalum Kadanthu Pogum</t>
+          <t>Vallavan</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2453,7 +2461,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DDP5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2465,24 +2473,24 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>975.96 MB</t>
+          <t>1.1 GB</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Singham Again</t>
+          <t>Varumaiyin Niram Sivappu</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2492,31 +2500,31 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hindi + Hindi - HQ HDRip - x264 - AAC - 800MB</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DDP 2.0 (224Kbps)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 224Kbps</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>837.42 MB</t>
+          <t>1.6 GB</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vallavan</t>
+          <t>Yejaman</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2531,31 +2539,31 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DDP5.1 (192Kbps)</t>
+          <t>Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - AAC - 950MB - ESub</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.1 GB</t>
+          <t>950.9 MB</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Varumaiyin Niram Sivappu</t>
+          <t>Adhagappattathu Magajanangalay</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2565,36 +2573,36 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DDP 2.0 (224Kbps)</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>AAC &amp; 224Kbps</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1.6 GB</t>
+          <t>888.04 MB</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Yejaman</t>
+          <t>Barroz</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2609,7 +2617,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - AAC - 950MB - ESub</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2621,58 +2629,58 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>950.9 MB</t>
+          <t>972.66 MB</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Adhagappattathu Magajanangalay</t>
+          <t>Meiyazhagan</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
+          <t>Tamil + Tamil UNCUT - HQ HDRip - x264 - AAC - 700MB - ESub</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>888.04 MB</t>
+          <t>739.0 MB</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Barroz</t>
+          <t>Soodhu Kavvum</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2687,26 +2695,26 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>AAC + Tamil + Tamil - 720p BDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>972.66 MB</t>
+          <t>1.08 GB</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Meiyazhagan</t>
+          <t>Venom The Last dance</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2716,17 +2724,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Tamil + Tamil UNCUT - HQ HDRip - x264 - AAC - 700MB - ESub</t>
+          <t>720p HQ HDRip - HEVC - x265 - [Tam + Eng + Hin + Tel</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2738,53 +2746,53 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>739.0 MB</t>
+          <t>1.04 GB</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Soodhu Kavvum</t>
+          <t>A.R.M</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p BDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
+          <t>Tamil + Tamil - HQ HDRip - x264 - AAC - 700MB - ESub</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1.08 GB</t>
+          <t>722.34 MB</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Venom The Last dance</t>
+          <t>Nayanthara Beyond the Fairy Tale</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2799,31 +2807,31 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>720p HQ HDRip - HEVC - x265 - [Tam + Eng + Hin + Tel</t>
+          <t>720p HDRip - x264 - [Tam + Hin + Mal + Tel</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>192Kbps</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.04 GB</t>
+          <t>1.07 GB</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A.R.M</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2855,14 +2863,14 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>722.34 MB</t>
+          <t>728.04 MB</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nayanthara Beyond the Fairy Tale</t>
+          <t>Brother</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2877,31 +2885,31 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>720p HDRip - x264 - [Tam + Hin + Mal + Tel</t>
+          <t>Tamil + Tamil - 720p HQ HDRip HEVC - x265 - AAC - 850MB</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.07 GB</t>
+          <t>892.36 MB</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Devara</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2911,7 +2919,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>HDRip</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2921,7 +2929,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - HQ HDRip - x264 - AAC - 700MB - ESub</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2933,14 +2941,14 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>728.04 MB</t>
+          <t>735.62 MB</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Brother</t>
+          <t>Lubber Pandhu</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2950,17 +2958,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - 720p HQ HDRip HEVC - x265 - AAC - 850MB</t>
+          <t>Tamil + Tamil - HQ HDRip - x264 - AAC - 700MB - ESub</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2972,14 +2980,14 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>892.36 MB</t>
+          <t>730.79 MB</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Devara</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2999,7 +3007,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>Kannada + Kannada - HDRip - x264 - AAC - 800MB - ESub</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3011,14 +3019,14 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>735.62 MB</t>
+          <t>847.16 MB</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lubber Pandhu</t>
+          <t>Meiyazhagan</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3050,14 +3058,14 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>730.79 MB</t>
+          <t>739.14 MB</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>Bagheera</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3067,7 +3075,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3077,26 +3085,26 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Kannada + Kannada - HDRip - x264 - AAC - 800MB - ESub</t>
+          <t>AAC + Kannada + Kannada - 720p HQ HDRip - x264 - [DD5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>847.16 MB</t>
+          <t>1.56 GB</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Meiyazhagan</t>
+          <t>Kishkindha Kaandam</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3106,46 +3114,46 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - HQ HDRip - x264 - AAC - 700MB - ESub</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>739.14 MB</t>
+          <t>1.02 GB</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bagheera</t>
+          <t>Chhota Bheem Adventure of Persia</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3155,31 +3163,31 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AAC + Kannada + Kannada - 720p HQ HDRip - x264 - [DD5.1 (192Kbps)</t>
+          <t>1080p HQ HDRip - x264 - [Tamil + Eng + Hin + Tamil + Tel</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>128Kbps</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1.56 GB</t>
+          <t>1.16 GB</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kishkindha Kaandam</t>
+          <t>Veerapandiya Kattabomman</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3189,12 +3197,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDTVRip - x264 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3206,58 +3214,58 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1.02 GB</t>
+          <t>1.58 GB</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chhota Bheem Adventure of Persia</t>
+          <t>Sivappu Sooriyan</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1080p HQ HDRip - x264 - [Tamil + Eng + Hin + Tamil + Tel</t>
+          <t>Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - AAC - 800MB</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>128Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.16 GB</t>
+          <t>817.65 MB</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Veerapandiya Kattabomman</t>
+          <t>Nirangal Moondru</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3267,12 +3275,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDTVRip - x264 - [DD5.1(192Kbps)</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip HEVC - x265 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3284,19 +3292,19 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1.58 GB</t>
+          <t>788.21 MB</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sivappu Sooriyan</t>
+          <t>Pushpa 2 The Rule</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3306,12 +3314,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - AAC - 800MB</t>
+          <t>Kannada + Kannada - 720p HDRip - x264 - AAC - 1.4GB - Original Audio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3323,14 +3331,14 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>817.65 MB</t>
+          <t>1.42 GB</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nirangal Moondru</t>
+          <t>Pushpa 2 The Rule</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3340,41 +3348,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip HEVC - x265 - [DD5.1(192Kbps)</t>
+          <t>Tamil + Tamil - 1080p HD AVC UNTOUCHED - x264 - AAC - 4.8GB</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>788.21 MB</t>
+          <t>4.84 GB</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pushpa 2 The Rule</t>
+          <t>Arunachalam</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3384,31 +3392,31 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Kannada + Kannada - 720p HDRip - x264 - AAC - 1.4GB - Original Audio</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDTVRip - HEVC - x265 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1.42 GB</t>
+          <t>1.1 GB</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Pushpa 2 The Rule</t>
+          <t>Aay</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3418,17 +3426,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - 1080p HD AVC UNTOUCHED - x264 - AAC - 4.8GB</t>
+          <t>Tamil + Tamil - HQ HDRip - x264 - AAC - 800MB - ESub</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3440,59 +3448,63 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>4.84 GB</t>
+          <t>800.98 MB</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Arunachalam</t>
+          <t>Laughing Buddha</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDTVRip - HEVC - x265 - [DD5.1(192Kbps)</t>
+          <t>Kannada + Kannada - HQ HDRip - x264 - AAC - 700MB - ESub</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.1 GB</t>
+          <t>713.02 MB</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Pokemon_the_Movie_I_Choose_You_2017_BluRay_720p_Tam_Tel_Hin_Eng.mkv</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
+          <t>Vasgodagama</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3500,20 +3512,28 @@
           <t>x264</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Tamil + Tamil - HQ HDRip - x264 - AAC - 700MB - ESub</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AAC</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1.08 GB</t>
+          <t>707.28 MB</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Aay</t>
+          <t>Surya's Saturday</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3533,7 +3553,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - HQ HDRip - x264 - AAC - 800MB - ESub</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3545,14 +3565,14 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>800.98 MB</t>
+          <t>801.6 MB</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Laughing Buddha</t>
+          <t>Yuva</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3572,26 +3592,26 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Kannada + Kannada - HQ HDRip - x264 - AAC - 700MB - ESub</t>
+          <t>Kannada</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>713.02 MB</t>
+          <t>1.44 GB</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Vasgodagama</t>
+          <t>Bhairathi Ranagal</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3601,36 +3621,36 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - HQ HDRip - x264 - AAC - 700MB - ESub</t>
+          <t>AAC + Kannada + Kannada - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>707.28 MB</t>
+          <t>925.38 MB</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Surya's Saturday</t>
+          <t>The Greatest Of All Time</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3640,36 +3660,36 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>4K</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>4K UHD HEVC - x265 - [Tam + Hin + Kan + Mal + Tel</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>640Kbps</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>801.6 MB</t>
+          <t>26.62 GB</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Yuva</t>
+          <t>Lucky Baskhar</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3679,41 +3699,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>1080p</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kannada</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>640Kbps &amp; AAC &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.44 GB</t>
+          <t>3.25 GB</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bhairathi Ranagal</t>
+          <t>Bad Cat</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3723,31 +3743,31 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AAC + Kannada + Kannada - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
+          <t>720p BDRip - x264 - [Tam + Eng + Hin</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>925.38 MB</t>
+          <t>937.44 MB</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>The Greatest Of All Time</t>
+          <t>Miss You</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3757,51 +3777,51 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4K</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4K UHD HEVC - x265 - [Tam + Hin + Kan + Mal + Tel</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>640Kbps</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>26.62 GB</t>
+          <t>1.14 GB</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Lucky Baskhar</t>
+          <t>Ponmana Selvan</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1080p</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3811,26 +3831,26 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>AAC &amp; DD+5.1 &amp; 640Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>3.25 GB</t>
+          <t>785.78 MB</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bad Cat</t>
+          <t>Soodhu Kavvum 2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3840,31 +3860,31 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>720p BDRip - x264 - [Tam + Eng + Hin</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>937.44 MB</t>
+          <t>1.04 GB</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Miss You</t>
+          <t>Sookshmadarshini</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3879,12 +3899,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1(192Kbps)</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3896,53 +3916,53 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.14 GB</t>
+          <t>961.76 MB</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ponmana Selvan</t>
+          <t>Daari Deepa</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>Kannada</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; DD+ &amp; 224Kbps</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>785.78 MB</t>
+          <t>701.55 MB</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Soodhu Kavvum 2</t>
+          <t>Aalan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3952,7 +3972,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3962,7 +3982,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1(192Kbps)</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3974,14 +3994,14 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.04 GB</t>
+          <t>889.56 MB</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sookshmadarshini</t>
+          <t>Family Padam</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3991,7 +4011,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4001,31 +4021,31 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1(192Kbps)</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>961.76 MB</t>
+          <t>1.06 GB</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Daari Deepa</t>
+          <t>Chinna Thambi</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4035,36 +4055,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>x265</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Kannada</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>AAC &amp; DD+ &amp; 224Kbps</t>
-        </is>
-      </c>
+          <t>Tamil</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>701.55 MB</t>
+          <t>954.33 MB</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Aalan</t>
+          <t>Kovil</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4084,105 +4100,109 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>889.56 MB</t>
+          <t>815.74 MB</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Family Padam</t>
+          <t>Maryade Prashne</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>AAC + Kannada + Kannada  - 720p HQ HDRip - x264 - [DD 5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.06 GB</t>
+          <t>1.21 GB</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Chinna Thambi</t>
+          <t>Game Changer</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x265</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Tamil</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip HEVC - x265 - [DD5.1(192Kbps)</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>AAC &amp; 192Kbps</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>954.33 MB</t>
+          <t>1.26 GB</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kovil</t>
+          <t>Madraskaaran</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>720p</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4192,31 +4212,31 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>AAC + Tamil + Tamil - 720p HD HEVC - x265 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>815.74 MB</t>
+          <t>846.36 MB</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Maryade Prashne</t>
+          <t>Aayirathil Oruvan</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4226,36 +4246,36 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AAC + Kannada + Kannada  - 720p HQ HDRip - x264 - [DD 5.1 (192Kbps)</t>
+          <t>Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - AAC - 900MB</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.21 GB</t>
+          <t>914.18 MB</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Game Changer</t>
+          <t>Alangu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4265,12 +4285,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip HEVC - x265 - [DD5.1(192Kbps)</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4282,14 +4302,14 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1.26 GB</t>
+          <t>1.25 GB</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Madraskaaran</t>
+          <t>Hisaab Barabar</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4304,36 +4324,32 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>AVC</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HD HEVC - x265 - [DD5.1(192Kbps)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>AAC &amp; 192Kbps</t>
-        </is>
-      </c>
+          <t>720p HD AVC - [Tamil + Hindi + Tamil + Telugu</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>846.36 MB</t>
+          <t>1.16 GB</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Aayirathil Oruvan</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4348,31 +4364,31 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - AAC - 900MB</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip HEVC - x265 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>914.18 MB</t>
+          <t>933.45 MB</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Alangu</t>
+          <t>Pushpa 2 The Rule (Reloaded Version)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4382,12 +4398,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1(192Kbps)</t>
+          <t>AAC + Tamil + Tamil  - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4399,19 +4415,19 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>1.25 GB</t>
+          <t>1.59 GB</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hisaab Barabar</t>
+          <t>Singham Again</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4421,27 +4437,31 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>AVC</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>720p HD AVC - [Tamil + Hindi + Tamil + Telugu</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip HEVC - x265 - [DD5.1(192Kbps)</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>AAC &amp; 192Kbps</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1.16 GB</t>
+          <t>984.75 MB</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Thiru.Manickam</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4456,12 +4476,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip HEVC - x265 - [DD5.1(192Kbps)</t>
+          <t>Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1 (192Kbps) +AAC</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4473,19 +4493,19 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>933.45 MB</t>
+          <t>1.13 GB</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Pushpa 2 The Rule (Reloaded Version)</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4495,31 +4515,31 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil  - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
+          <t>Kannada</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1.59 GB</t>
+          <t>1.39 GB</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Singham Again</t>
+          <t>Viduthalai Part 2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4539,7 +4559,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip HEVC - x265 - [DD5.1(192Kbps)</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4551,19 +4571,19 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>984.75 MB</t>
+          <t>1.03 GB</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Thiru.Manickam</t>
+          <t>Hellboy - The Crooked Man</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4578,26 +4598,26 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1 (192Kbps) +AAC</t>
+          <t>720p HQ HDRip - x264 - [Tam + Eng + Hin + Tel</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>1.13 GB</t>
+          <t>1.09 GB</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>Once Upon a Time in Madras</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4617,26 +4637,26 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Kannada</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1.39 GB</t>
+          <t>1.31 GB</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Viduthalai Part 2</t>
+          <t>Pani</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4668,14 +4688,14 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1.03 GB</t>
+          <t>1.13 GB</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hellboy - The Crooked Man</t>
+          <t>The Smile Man</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4690,41 +4710,41 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>720p HQ HDRip - x264 - [Tam + Eng + Hin + Tel</t>
+          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1(192Kbps)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1.09 GB</t>
+          <t>838.34 MB</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Once Upon a Time in Madras</t>
+          <t>Genghis The Legend of the Ten</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4734,65 +4754,65 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - x264 - [DD5.1(192Kbps)</t>
+          <t>Hin + Mon + Tam</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1.31 GB</t>
+          <t>938.44 MB</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Pani</t>
+          <t>Jodhaa Akbar</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1 (192Kbps)</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1.13 GB</t>
+          <t>1.57 GB</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>The Smile Man</t>
+          <t>Tenant (</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4802,80 +4822,80 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>720p</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>AAC + Tamil + Tamil - 720p HQ HDRip - HEVC - x265 - [DD5.1(192Kbps)</t>
+          <t>Hin + Tam</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>838.34 MB</t>
+          <t>884.22 MB</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Genghis The Legend of the Ten</t>
+          <t>Tumbbad</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>x265</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Hin + Mon + Tam</t>
+          <t>Hin + Tam + Tel</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>192Kbps</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>938.44 MB</t>
+          <t>1.16 GB</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Jodhaa Akbar</t>
+          <t>Barroz</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4885,7 +4905,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4895,21 +4915,21 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.57 GB</t>
+          <t>1.1 GB</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Tenant (</t>
+          <t>Emakku Thozhil Romance</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4924,36 +4944,36 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x264</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Hin + Tam</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>884.22 MB</t>
+          <t>1.45 GB</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Tumbbad</t>
+          <t>Game Changer</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4963,41 +4983,41 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x265</t>
+          <t>HEVC</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Hin + Tam + Tel</t>
+          <t>Tamil</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>192Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1.16 GB</t>
+          <t>957.45 MB</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Barroz</t>
+          <t>Karnan</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5012,31 +5032,31 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+          <t>AAC &amp; 224Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1.1 GB</t>
+          <t>1.31 GB</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Emakku Thozhil Romance</t>
+          <t>M.S Dhoni The Untold Story</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5051,31 +5071,31 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+          <t>AAC &amp; 224Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>1.45 GB</t>
+          <t>1.74 GB</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Game Changer</t>
+          <t>Ponnar Sankar</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5090,31 +5110,31 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>AAC</t>
+          <t>AAC &amp; 224Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>957.45 MB</t>
+          <t>998.9 MB</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Karnan</t>
+          <t>Rifle Club</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5129,26 +5149,26 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>AAC &amp; DD+5.1 &amp; 224Kbps</t>
+          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1.31 GB</t>
+          <t>797.08 MB</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>M.S Dhoni The Untold Story</t>
+          <t>Sherlock Holmes</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5158,85 +5178,85 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>Eng + Tam</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>AAC &amp; DD+5.1 &amp; 224Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>1.74 GB</t>
+          <t>914.43 MB</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ponnar Sankar</t>
+          <t>The Sabarmati Report</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>BluRay</t>
+          <t>HQ HDRip</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Tamil</t>
+          <t>Tamil + Telugu</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>AAC &amp; DD+5.1 &amp; 224Kbps</t>
+          <t>AAC</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>998.9 MB</t>
+          <t>962.26 MB</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Rifle Club</t>
+          <t>Vinnaithaandi Varuvaayaa</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HQ HDRip</t>
+          <t>BluRay</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HEVC</t>
+          <t>x264</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5246,129 +5266,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>AAC &amp; 192Kbps &amp; DD+5.1</t>
+          <t>AAC &amp; 224Kbps &amp; DD+5.1</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
-        <is>
-          <t>797.08 MB</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Sherlock Holmes</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>BluRay</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>x264</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Eng + Tam</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>AAC</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>914.43 MB</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>The Sabarmati Report</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>HQ HDRip</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>x264</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Tamil + Telugu</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>AAC</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>962.26 MB</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Vinnaithaandi Varuvaayaa</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>BluRay</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>x264</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Tamil</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>AAC &amp; DD+5.1 &amp; 224Kbps</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
         <is>
           <t>1.36 GB</t>
         </is>
